--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\git\Hardware\sensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/资料/others/Hardware/sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA30166-CFB0-4C0E-8032-6BA08A6973E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB320F4-E755-574E-8958-04F3C536ECF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25460" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,22 @@
   </si>
   <si>
     <t>数据进行加密处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEA加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确到个位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突变或者正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +139,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,21 +165,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,143 +484,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="82.75" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\git\Hardware\sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA30166-CFB0-4C0E-8032-6BA08A6973E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1368799-E1F9-43D9-B565-4F8412032445}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -146,11 +152,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,21 +453,21 @@
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -489,8 +495,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -517,51 +523,55 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="J3">
+        <f>SUM(B3:I3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -569,8 +579,8 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -1,122 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\git\Hardware\sensor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1368799-E1F9-43D9-B565-4F8412032445}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据头</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>异或校验</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>深度百分比</t>
+  </si>
+  <si>
+    <t>电池电压</t>
+  </si>
+  <si>
+    <t>命令或状态</t>
   </si>
   <si>
     <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令或状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异或校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0xABAB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0xAAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认填写0然后对除数据头的数据进行异或校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据进行加密处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -125,20 +90,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,33 +447,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -256,7 +843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -430,74 +1017,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -528,59 +1110,59 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" ht="82.8" customHeight="1" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -589,8 +1171,8 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/资料/others/Hardware/sensor/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C3868-C6C2-9844-B5A3-935567C4D087}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24780" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>数据结构</t>
   </si>
@@ -52,12 +46,24 @@
     <t>命令或状态</t>
   </si>
   <si>
+    <t>流量</t>
+  </si>
+  <si>
+    <t>渗漏状态</t>
+  </si>
+  <si>
     <t>byte</t>
   </si>
   <si>
+    <t>node to server</t>
+  </si>
+  <si>
     <t>0xABAB</t>
   </si>
   <si>
+    <t>server to node</t>
+  </si>
+  <si>
     <t>0xAAAA</t>
   </si>
   <si>
@@ -65,70 +71,43 @@
   </si>
   <si>
     <t>数据进行加密处理(暂时未实现)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据内容</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>范围0--65535</t>
+  </si>
+  <si>
+    <t>数据长度</t>
   </si>
   <si>
     <t>第一个字节为整数位，第二个字节位小数位，如0x03,0x05代表深度为3.5米</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>如78，则代表为78%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据格式与深度相同，如0x03,0x05,则代表电池电压为3.5v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令或状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1代表超过警戒报警，0位正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>node to server</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>server to node</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围0--65535</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据长度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,39 +124,360 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,42 +500,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -493,206 +1079,218 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="67.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3">
-        <f>SUM(B3:I3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>SUM(B3:K3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" ht="82.75" customHeight="1" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="82.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -700,8 +1298,8 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/资料/others/Hardware/sensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1709CD-033C-4F42-99D0-8D035393D321}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A01B11-4277-B84E-9B1B-22A901A1DCAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1220" windowWidth="24000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="480" windowWidth="24000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,15 +237,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -537,17 +537,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
@@ -587,7 +587,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="2">
@@ -676,7 +676,7 @@
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -684,7 +684,7 @@
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -713,18 +713,18 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -732,10 +732,10 @@
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/资料/others/Hardware/sensor/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A01B11-4277-B84E-9B1B-22A901A1DCAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="480" windowWidth="24000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>数据结构</t>
   </si>
@@ -65,6 +52,9 @@
     <t>渗漏状态</t>
   </si>
   <si>
+    <t>bytes</t>
+  </si>
+  <si>
     <t>node to server</t>
   </si>
   <si>
@@ -77,63 +67,53 @@
     <t>0xAAAA</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>范围0--65535</t>
+  </si>
+  <si>
+    <t>数据长度</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>第一个字节为整数位，第二个字节位小数位，如0x13,0x05代表深度为19.5米</t>
+  </si>
+  <si>
+    <t>如78，则代表为78%</t>
+  </si>
+  <si>
+    <t>数据格式与深度相同，如0x03,0x05,则代表电池电压为3.5v</t>
+  </si>
+  <si>
+    <t>1代表超过警戒报警，0位正常</t>
+  </si>
+  <si>
+    <t>前三个字节为整数位，第四个字节为小数位，单位L</t>
+  </si>
+  <si>
+    <t>1代表渗漏，0正常</t>
+  </si>
+  <si>
     <t>默认填写0然后对除数据头的数据进行异或校验</t>
   </si>
   <si>
     <t>数据进行加密处理(暂时未实现)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>范围0--65535</t>
-  </si>
-  <si>
-    <t>数据长度</t>
-  </si>
-  <si>
-    <t>如78，则代表为78%</t>
-  </si>
-  <si>
-    <t>数据格式与深度相同，如0x03,0x05,则代表电池电压为3.5v</t>
-  </si>
-  <si>
-    <t>1代表超过警戒报警，0位正常</t>
-  </si>
-  <si>
-    <t>0-255</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个字节为整数位，第二个字节位小数位，如0x03,0x05代表深度为3.5米</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渗漏状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1代表渗漏，0正常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前三个字节为整数位，第四个字节为小数位，单位L</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,39 +145,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,45 +506,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -516,108 +1085,108 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="67.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
       <c r="L3">
@@ -625,121 +1194,121 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -747,8 +1316,8 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B21:C21"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="21000" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>数据结构</t>
   </si>
@@ -109,11 +109,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,30 +130,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,15 +181,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,30 +261,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -229,61 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,31 +283,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,13 +427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,115 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,11 +492,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,66 +589,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,137 +607,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,14 +746,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1093,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1156,7 +1137,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3">
@@ -1195,30 +1176,30 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -1226,7 +1207,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1234,80 +1215,80 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
     </row>

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="20171" windowHeight="6312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
   <si>
     <t>数据结构</t>
   </si>
@@ -101,6 +102,387 @@
   </si>
   <si>
     <t>数据进行加密处理(暂时未实现)</t>
+  </si>
+  <si>
+    <t>SEG0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEG1 </t>
+  </si>
+  <si>
+    <t>SEG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEG3 </t>
+  </si>
+  <si>
+    <t>SEG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEG5 </t>
+  </si>
+  <si>
+    <t>SEG6</t>
+  </si>
+  <si>
+    <t>SEG7</t>
+  </si>
+  <si>
+    <t>SEG8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEG9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEG10 </t>
+  </si>
+  <si>
+    <t>SEG11</t>
+  </si>
+  <si>
+    <t>SEG12</t>
+  </si>
+  <si>
+    <t>SEG13</t>
+  </si>
+  <si>
+    <t>COM0</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>RAM0[0]</t>
+  </si>
+  <si>
+    <t>RAM0[1]</t>
+  </si>
+  <si>
+    <t>RAM0[2]</t>
+  </si>
+  <si>
+    <t>RAM0[3]</t>
+  </si>
+  <si>
+    <t>RAM0[4]</t>
+  </si>
+  <si>
+    <t>RAM0[5]</t>
+  </si>
+  <si>
+    <t>RAM0[6]</t>
+  </si>
+  <si>
+    <t>RAM0[7]</t>
+  </si>
+  <si>
+    <t>RAM1[0]</t>
+  </si>
+  <si>
+    <t>RAM1[1]</t>
+  </si>
+  <si>
+    <t>RAM1[2]</t>
+  </si>
+  <si>
+    <t>RAM1[3]</t>
+  </si>
+  <si>
+    <t>RAM1[4]</t>
+  </si>
+  <si>
+    <t>RAM1[5]</t>
+  </si>
+  <si>
+    <t>COM1</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3G</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>RAM3[4]</t>
+  </si>
+  <si>
+    <t>RAM3[5]</t>
+  </si>
+  <si>
+    <t>RAM3[6]</t>
+  </si>
+  <si>
+    <t>RAM3[7]</t>
+  </si>
+  <si>
+    <t>RAM4[0]</t>
+  </si>
+  <si>
+    <t>RAM4[1]</t>
+  </si>
+  <si>
+    <t>RAM4[2]</t>
+  </si>
+  <si>
+    <t>RAM4[3]</t>
+  </si>
+  <si>
+    <t>RAM4[4]</t>
+  </si>
+  <si>
+    <t>RAM4[5]</t>
+  </si>
+  <si>
+    <t>RAM4[6]</t>
+  </si>
+  <si>
+    <t>RAM4[7]</t>
+  </si>
+  <si>
+    <t>RAM5[0]</t>
+  </si>
+  <si>
+    <t>RAM5[1]</t>
+  </si>
+  <si>
+    <t>COM2</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>RAM7[0]</t>
+  </si>
+  <si>
+    <t>RAM7[1]</t>
+  </si>
+  <si>
+    <t>RAM7[2]</t>
+  </si>
+  <si>
+    <t>RAM7[3]</t>
+  </si>
+  <si>
+    <t>RAM7[4]</t>
+  </si>
+  <si>
+    <t>RAM7[5]</t>
+  </si>
+  <si>
+    <t>RAM7[6]</t>
+  </si>
+  <si>
+    <t>RAM7[7]</t>
+  </si>
+  <si>
+    <t>RAM8[0]</t>
+  </si>
+  <si>
+    <t>RAM8[1]</t>
+  </si>
+  <si>
+    <t>RAM8[2]</t>
+  </si>
+  <si>
+    <t>RAM8[3]</t>
+  </si>
+  <si>
+    <t>RAM8[4]</t>
+  </si>
+  <si>
+    <t>RAM8[5]</t>
+  </si>
+  <si>
+    <t>COM3</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>RAM10[4]</t>
+  </si>
+  <si>
+    <t>RAM10[5]</t>
+  </si>
+  <si>
+    <t>RAM10[6]</t>
+  </si>
+  <si>
+    <t>RAM10[7]</t>
+  </si>
+  <si>
+    <t>RAM11[0]</t>
+  </si>
+  <si>
+    <t>RAM11[1]</t>
+  </si>
+  <si>
+    <t>RAM11[2]</t>
+  </si>
+  <si>
+    <t>RAM11[3]</t>
+  </si>
+  <si>
+    <t>RAM11[4]</t>
+  </si>
+  <si>
+    <t>RAM11[5]</t>
+  </si>
+  <si>
+    <t>RAM11[6]</t>
+  </si>
+  <si>
+    <t>RAM11[7]</t>
+  </si>
+  <si>
+    <t>RAM12[0]</t>
+  </si>
+  <si>
+    <t>RAM12[1]</t>
   </si>
 </sst>
 </file>
@@ -108,15 +490,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,7 +529,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,22 +603,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,33 +634,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,20 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -251,24 +665,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,31 +681,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,19 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,122 +865,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -493,6 +891,138 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -503,15 +1033,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,46 +1080,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,146 +1098,161 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1074,7 +1580,7 @@
   <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1087,87 +1593,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="18">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="18">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="18">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="18">
         <v>4</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="18">
         <v>1</v>
       </c>
       <c r="L3">
@@ -1176,30 +1682,30 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4"/>
+      <c r="A4" s="19"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="19"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="19"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -1207,7 +1713,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -1215,80 +1721,80 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1301,4 +1807,497 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C4:S13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="4" spans="4:19">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S12" s="15"/>
+    </row>
+    <row r="13" spans="4:19">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20171" windowHeight="6312" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
   <si>
     <t>数据结构</t>
   </si>
@@ -53,9 +53,15 @@
     <t>渗漏状态</t>
   </si>
   <si>
+    <t>定位信息</t>
+  </si>
+  <si>
     <t>bytes</t>
   </si>
   <si>
+    <t>命令</t>
+  </si>
+  <si>
     <t>node to server</t>
   </si>
   <si>
@@ -98,9 +104,15 @@
     <t>1代表渗漏，0正常</t>
   </si>
   <si>
+    <t>全0无效</t>
+  </si>
+  <si>
     <t>默认填写0然后对除数据头的数据进行异或校验</t>
   </si>
   <si>
+    <t>0x6a开阀，0xa6关阀</t>
+  </si>
+  <si>
     <t>数据进行加密处理(暂时未实现)</t>
   </si>
   <si>
@@ -432,6 +444,9 @@
   </si>
   <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
   <si>
     <t>2D</t>
@@ -490,12 +505,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,9 +537,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,7 +567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,23 +581,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,8 +612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,30 +622,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,8 +642,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,21 +694,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -681,187 +704,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,16 +1006,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1039,6 +1062,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1056,40 +1103,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,161 +1121,158 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1578,10 +1598,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1593,215 +1613,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="1">
         <v>4</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3">
         <f>SUM(B3:K3)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="19"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="19"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16"/>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
-        <v>13</v>
+      <c r="A11" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="19" t="s">
-        <v>28</v>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1812,13 +1879,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:S13"/>
+  <dimension ref="C4:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="11" max="11" width="10.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="10.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="10.8888888888889" customWidth="1"/>
+    <col min="17" max="17" width="9.88888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="4:19">
       <c r="D4" s="1"/>
@@ -1870,46 +1943,46 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:19">
@@ -1917,384 +1990,387 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="O6" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="P6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="4:19">
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="O7" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="3:19">
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="M8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="N8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="O8" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="P8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="4:19">
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="O9" s="7" t="s">
         <v>100</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="3:19">
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="L10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="N10" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="O10" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="P10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="4:19">
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="O11" s="7" t="s">
         <v>129</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="3:19">
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="L12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="S12" s="15"/>
+      <c r="N12" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="K13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="M13" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="N13" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="O13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
   <si>
     <t>数据结构</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>数据进行加密处理(暂时未实现)</t>
+  </si>
+  <si>
+    <t>屏幕显示</t>
+  </si>
+  <si>
+    <t>pa联网中</t>
+  </si>
+  <si>
+    <t>kpa联网成功</t>
+  </si>
+  <si>
+    <t>无pa和kpa表示目前不需要联网</t>
   </si>
   <si>
     <t>SEG0</t>
@@ -506,8 +518,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -559,31 +571,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,9 +591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,15 +600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,6 +608,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,38 +645,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,6 +666,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -704,187 +716,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,6 +1019,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1030,56 +1081,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,11 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,10 +1121,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,137 +1133,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1279,6 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1598,10 +1611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1863,6 +1876,26 @@
     <row r="24" spans="1:1">
       <c r="A24" s="16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1915,7 @@
   <dimension ref="C4:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1943,46 +1976,46 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="3:19">
@@ -1990,96 +2023,96 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="4:19">
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="3:19">
@@ -2087,96 +2120,96 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="4:19">
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="3:19">
@@ -2184,96 +2217,96 @@
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="4:19">
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="3:19">
@@ -2281,45 +2314,45 @@
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="S12" s="13"/>
     </row>
@@ -2327,46 +2360,46 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="15:15">

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -104,7 +104,7 @@
     <t>1代表渗漏，0正常</t>
   </si>
   <si>
-    <t>全0无效</t>
+    <t>全0无效，数据为ascii码</t>
   </si>
   <si>
     <t>默认填写0然后对除数据头的数据进行异或校验</t>
@@ -564,35 +564,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,29 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,33 +608,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,9 +630,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,10 +669,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -716,187 +716,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,6 +1018,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1029,30 +1067,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,31 +1086,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,145 +1121,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="25600" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>数据结构</t>
   </si>
@@ -86,7 +86,10 @@
     <t>0-255</t>
   </si>
   <si>
-    <t>第一个字节为整数位，第二个字节位小数位，如0x13,0x05代表深度为19.5米</t>
+    <t>深度(单位mm)</t>
+  </si>
+  <si>
+    <t>例如四个字节分别为：0x01,0x02,0x03,0x04,代表深度为1234mm</t>
   </si>
   <si>
     <t>如78，则代表为78%</t>
@@ -517,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -533,7 +536,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,7 +544,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -564,17 +567,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +583,68 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,52 +666,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,44 +703,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -716,187 +719,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,27 +952,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -984,6 +969,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1021,8 +1024,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,11 +1041,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,7 +1075,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,17 +1095,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,166 +1118,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,17 +1270,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,54 +1298,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1609,20 +1612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="67.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.6696428571429" customWidth="1"/>
+    <col min="2" max="2" width="67.3303571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.6696428571429" customWidth="1"/>
+    <col min="9" max="9" width="11.6696428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1678,7 +1681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1714,10 +1717,6 @@
       </c>
       <c r="L3">
         <v>27</v>
-      </c>
-      <c r="M3">
-        <f>SUM(B3:K3)</f>
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1802,10 +1801,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1813,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1821,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1829,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1837,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1845,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1853,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1861,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="18"/>
     </row>
@@ -1870,32 +1869,32 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="C4:S18"/>
   <sheetViews>
@@ -1918,12 +1917,12 @@
       <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4"/>
   <cols>
-    <col min="11" max="11" width="10.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="10.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="10.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="9.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.8928571428571" customWidth="1"/>
+    <col min="13" max="13" width="10.8928571428571" customWidth="1"/>
+    <col min="15" max="15" width="10.8928571428571" customWidth="1"/>
+    <col min="17" max="17" width="9.89285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:19">
@@ -1975,431 +1974,431 @@
     <row r="5" spans="4:19">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="O5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="Q5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:19">
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="M6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="S6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="4:19">
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="P7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="Q7" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="R7" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="S7" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="3:19">
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>80</v>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="4:19">
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="O9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="P9" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="Q9" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="R9" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="S9" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="3:19">
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>109</v>
+      <c r="D10" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="4:19">
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="M11" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="O11" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="Q11" s="8" t="s">
         <v>136</v>
       </c>
+      <c r="R11" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="S11" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="3:19">
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>138</v>
+      <c r="D12" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="4:19">
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>155</v>
       </c>
+      <c r="J13" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="K13" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L13" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="L13" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="M13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="N13" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="N13" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="O13" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="R13" s="7" t="s">
         <v>163</v>
       </c>
+      <c r="R13" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="S13" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="15:15">

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>数据结构</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>渗漏状态</t>
+  </si>
+  <si>
+    <t>阀门状态</t>
   </si>
   <si>
     <t>定位信息</t>
@@ -520,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -567,13 +570,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -582,22 +578,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,85 +644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +660,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,19 +728,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,13 +866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,139 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,8 +1027,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1092,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1070,199 +1121,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,10 +1617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1643,7 +1646,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -1680,10 +1683,13 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1716,18 +1722,21 @@
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16"/>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1769,42 +1778,42 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1812,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1820,7 +1829,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1828,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1836,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1844,15 +1853,15 @@
         <v>11</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1860,41 +1869,41 @@
         <v>5</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1975,46 +1984,46 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="3:19">
@@ -2022,96 +2031,96 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="4:19">
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="3:19">
@@ -2119,96 +2128,96 @@
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="4:19">
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="3:19">
@@ -2216,96 +2225,96 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="4:19">
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="3:19">
@@ -2313,45 +2322,45 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S12" s="13"/>
     </row>
@@ -2359,46 +2368,46 @@
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="15:15">

--- a/sensor/协议.xlsx
+++ b/sensor/协议.xlsx
@@ -523,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -570,7 +570,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,8 +598,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,21 +683,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -630,7 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,75 +712,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -722,25 +722,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,13 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,139 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,8 +1027,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,11 +1066,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,17 +1107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1091,181 +1121,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1729,7 +1729,21 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
